--- a/products/measurement_reports/balance_control/measurement/measurement_balance_control.xlsx
+++ b/products/measurement_reports/balance_control/measurement/measurement_balance_control.xlsx
@@ -109,6 +109,3522 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> plot in minimum position</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$5:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.1103465569966282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28795641401285038</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.8146689894884037E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8146689894884037E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.8146689894884037E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.8146689894884037E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19519674578312479</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.3012749287175166</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.50809159548189398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.82785370316450002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.3884281751693714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130520608"/>
+        <c:axId val="130517248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130520608"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130517248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130517248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130520608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> plot in flat position</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$5:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$5:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.8588765158091012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0947070104002612</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0947070104002612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0947070104002612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0947070104002612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9965603205053779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9965603205053779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9965603205053779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9965603205053779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9965603205053779</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8216093869466516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6307030288220434</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4439025037391762</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.351987469956194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2610349149417805</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2610349149417805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2610349149417805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2610349149417805</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3261341843434979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2489257680787345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2489257680787345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1710248904082512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1710248904082512</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1710248904082512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167251312"/>
+        <c:axId val="167251872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167251312"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167251872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="167251872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167251312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bode plot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in maximum position</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain (dB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$5:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$5:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.3221407629816073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7702687648397042</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0698118842327595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8746151384496343</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.8746151384496343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8746151384496343</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.8746151384496343</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.3140406664447637</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.3140406664447637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.3140406664447637</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.3140406664447637</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.2240306419112343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="167254112"/>
+        <c:axId val="167254672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="167254112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequenct (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167254672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="167254672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gain (dB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="167254112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>425822</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>414616</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15688</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="M13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,1067 +4002,1326 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="e">
+      <c r="D5" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="1">
         <f>E5/D5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="1" t="e">
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="G5" s="1">
         <f>20*LOG10(F5)</f>
-        <v>#DIV/0!</v>
+        <v>1.1103465569966282</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1" t="e">
+      <c r="J5" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="L5" s="1">
         <f>K5/J5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="1" t="e">
+        <v>1.2386363636363638</v>
+      </c>
+      <c r="M5" s="1">
         <f>20*LOG10(L5)</f>
-        <v>#DIV/0!</v>
+        <v>1.8588765158091012</v>
       </c>
       <c r="O5" s="1">
         <v>2</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="e">
+      <c r="P5" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.129</v>
+      </c>
+      <c r="R5" s="1">
         <f>Q5/P5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="1" t="e">
+        <v>1.4659090909090911</v>
+      </c>
+      <c r="S5" s="1">
         <f>20*LOG10(R5)</f>
-        <v>#DIV/0!</v>
+        <v>3.3221407629816073</v>
       </c>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>10</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="e">
+      <c r="D6" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="F6" s="1">
         <f>E6/D6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="1" t="e">
-        <f t="shared" ref="G6:G30" si="0">20*LOG10(F6)</f>
-        <v>#DIV/0!</v>
+        <v>1.0337078651685394</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" ref="G6:G29" si="0">20*LOG10(F6)</f>
+        <v>0.28795641401285038</v>
       </c>
       <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="e">
+      <c r="J6" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L6" s="1">
         <f>K6/J6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="1" t="e">
-        <f t="shared" ref="M6:M30" si="1">20*LOG10(L6)</f>
-        <v>#DIV/0!</v>
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" ref="M6:M14" si="1">20*LOG10(L6)</f>
+        <v>2.0947070104002612</v>
       </c>
       <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="e">
+      <c r="P6" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="R6" s="1">
         <f>Q6/P6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="1" t="e">
-        <f t="shared" ref="S6:S30" si="2">20*LOG10(R6)</f>
-        <v>#DIV/0!</v>
+        <v>1.9431818181818183</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" ref="S6:S29" si="2">20*LOG10(R6)</f>
+        <v>5.7702687648397042</v>
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>25</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="e">
+      <c r="D7" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" ref="F7:F25" si="3">E7/D7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I7" s="1">
         <v>25</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="e">
-        <f t="shared" ref="L7:L25" si="4">K7/J7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="1" t="e">
+      <c r="J7" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" ref="L7:L14" si="4">K7/J7</f>
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0947070104002612</v>
       </c>
       <c r="O7" s="1">
         <v>25</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="e">
+      <c r="P7" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R7" s="1">
         <f t="shared" ref="R7:R25" si="5">Q7/P7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S7" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0205999132796242</v>
       </c>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>50</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="e">
+      <c r="D8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I8" s="1">
         <v>50</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="e">
+      <c r="J8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L8" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="1" t="e">
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0947070104002612</v>
       </c>
       <c r="O8" s="1">
         <v>50</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1" t="e">
+      <c r="P8" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R8" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S8" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0205999132796242</v>
       </c>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>75</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="e">
+      <c r="D9" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="1" t="e">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <v>75</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="e">
+      <c r="J9" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L9" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="1" t="e">
+        <v>1.2727272727272729</v>
+      </c>
+      <c r="M9" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0947070104002612</v>
       </c>
       <c r="O9" s="1">
         <v>75</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="e">
+      <c r="P9" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="R9" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S9" s="1" t="e">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0205999132796242</v>
       </c>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>100</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="e">
+      <c r="D10" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I10" s="1">
         <v>100</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="e">
+      <c r="J10" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L10" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="1" t="e">
+        <v>1.258426966292135</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9965603205053779</v>
       </c>
       <c r="O10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="e">
+      <c r="P10" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R10" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S10" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="e">
+      <c r="D11" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I11" s="1">
         <v>200</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="e">
+      <c r="J11" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L11" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="1" t="e">
+        <v>1.258426966292135</v>
+      </c>
+      <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9965603205053779</v>
       </c>
       <c r="O11" s="1">
         <v>200</v>
       </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="e">
+      <c r="P11" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R11" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S11" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>300</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="e">
+      <c r="D12" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I12" s="1">
         <v>300</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="e">
+      <c r="J12" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L12" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="1" t="e">
+        <v>1.258426966292135</v>
+      </c>
+      <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9965603205053779</v>
       </c>
       <c r="O12" s="1">
         <v>300</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="e">
+      <c r="P12" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R12" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S12" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S12" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>400</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="e">
+      <c r="D13" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I13" s="1">
         <v>400</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="e">
+      <c r="J13" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L13" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="1" t="e">
+        <v>1.258426966292135</v>
+      </c>
+      <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9965603205053779</v>
       </c>
       <c r="O13" s="1">
         <v>400</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="e">
+      <c r="P13" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R13" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S13" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S13" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>500</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="e">
+      <c r="D14" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I14" s="1">
         <v>500</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="e">
+      <c r="J14" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L14" s="1">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="1" t="e">
+        <v>1.258426966292135</v>
+      </c>
+      <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9965603205053779</v>
       </c>
       <c r="O14" s="1">
         <v>500</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="e">
+      <c r="P14" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R14" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S14" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>750</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="e">
+      <c r="D15" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I15" s="1">
-        <v>750</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" ref="L15:L28" si="6">K15/J15</f>
+        <v>1.2333333333333334</v>
+      </c>
+      <c r="M15" s="1">
+        <f>20*LOG10(L15)</f>
+        <v>1.8216093869466516</v>
       </c>
       <c r="O15" s="1">
         <v>750</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1" t="e">
+      <c r="P15" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R15" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S15" s="1" t="e">
+        <v>2.0113636363636362</v>
+      </c>
+      <c r="S15" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0698118842327595</v>
       </c>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>1000</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="e">
+      <c r="D16" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I16" s="1">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M16" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2065217391304348</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" ref="M15:M28" si="7">20*LOG10(L16)</f>
+        <v>1.6307030288220434</v>
       </c>
       <c r="O16" s="1">
         <v>1000</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="e">
+      <c r="P16" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R16" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S16" s="1" t="e">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="S16" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.8746151384496343</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>2000</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="e">
+      <c r="D17" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2500</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9.4E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1808510638297873</v>
+      </c>
+      <c r="M17" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4439025037391762</v>
       </c>
       <c r="O17" s="1">
         <v>2000</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1" t="e">
+      <c r="P17" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R17" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="1" t="e">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="S17" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.8746151384496343</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C18" s="1">
         <v>2500</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="e">
+      <c r="D18" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I18" s="1">
-        <v>2500</v>
-      </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="6"/>
+        <v>1.168421052631579</v>
+      </c>
+      <c r="M18" s="1">
+        <f t="shared" si="7"/>
+        <v>1.351987469956194</v>
       </c>
       <c r="O18" s="1">
         <v>2500</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="e">
+      <c r="P18" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R18" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="1" t="e">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="S18" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.8746151384496343</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>3000</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="e">
+      <c r="D19" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M19" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="6"/>
+        <v>1.15625</v>
+      </c>
+      <c r="M19" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2610349149417805</v>
       </c>
       <c r="O19" s="1">
         <v>3000</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="e">
+      <c r="P19" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R19" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="1" t="e">
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="S19" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.8746151384496343</v>
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>5000</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="e">
+      <c r="D20" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="1" t="e">
+        <v>1.0113636363636365</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.8146689894884037E-2</v>
       </c>
       <c r="I20" s="1">
-        <v>5000</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7500</v>
+      </c>
+      <c r="J20" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="6"/>
+        <v>1.15625</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2610349149417805</v>
       </c>
       <c r="O20" s="1">
         <v>5000</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="e">
+      <c r="P20" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R20" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="1" t="e">
+        <v>1.8437499999999998</v>
+      </c>
+      <c r="S20" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.3140406664447637</v>
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>7500</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="e">
+      <c r="D21" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="1" t="e">
+        <v>1.0113636363636365</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.8146689894884037E-2</v>
       </c>
       <c r="I21" s="1">
-        <v>7500</v>
-      </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>1.15625</v>
+      </c>
+      <c r="M21" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2610349149417805</v>
       </c>
       <c r="O21" s="1">
         <v>7500</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="e">
+      <c r="P21" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R21" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="1" t="e">
+        <v>1.8437499999999998</v>
+      </c>
+      <c r="S21" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.3140406664447637</v>
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>9000</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="e">
+      <c r="D22" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="1" t="e">
+        <v>1.0113636363636365</v>
+      </c>
+      <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.8146689894884037E-2</v>
       </c>
       <c r="I22" s="1">
-        <v>9000</v>
-      </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M22" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="6"/>
+        <v>1.15625</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2610349149417805</v>
       </c>
       <c r="O22" s="1">
         <v>9000</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="e">
+      <c r="P22" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R22" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S22" s="1" t="e">
+        <v>1.8437499999999998</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.3140406664447637</v>
       </c>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
         <v>10000</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="e">
+      <c r="D23" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="1" t="e">
+        <v>1.0113636363636365</v>
+      </c>
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.8146689894884037E-2</v>
       </c>
       <c r="I23" s="1">
-        <v>10000</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M23" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>25000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1649484536082475</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="7"/>
+        <v>1.3261341843434979</v>
       </c>
       <c r="O23" s="1">
         <v>10000</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="e">
+      <c r="P23" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R23" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S23" s="1" t="e">
+        <v>1.8437499999999998</v>
+      </c>
+      <c r="S23" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.3140406664447637</v>
       </c>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
         <v>25000</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1" t="e">
+      <c r="D24" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I24" s="1">
-        <v>25000</v>
-      </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>50000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1546391752577319</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2489257680787345</v>
       </c>
       <c r="O24" s="1">
         <v>25000</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="e">
+      <c r="P24" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R24" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S24" s="1" t="e">
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S24" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C25" s="1">
         <v>50000</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="e">
+      <c r="D25" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="1" t="e">
+        <v>1.0227272727272727</v>
+      </c>
+      <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.19519674578312479</v>
       </c>
       <c r="I25" s="1">
-        <v>50000</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>100000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1546391752577319</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2489257680787345</v>
       </c>
       <c r="O25" s="1">
         <v>50000</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="e">
+      <c r="P25" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R25" s="1">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="1" t="e">
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S25" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C26" s="1">
         <v>100000</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="e">
+      <c r="D26" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F26" s="1">
         <f>E26/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="1" t="e">
+        <v>0.96590909090909105</v>
+      </c>
+      <c r="G26" s="1">
         <f>20*LOG10(F26)</f>
-        <v>#DIV/0!</v>
+        <v>-0.3012749287175166</v>
       </c>
       <c r="I26" s="1">
-        <v>100000</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="e">
-        <f>K26/J26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M26" s="1" t="e">
-        <f>20*LOG10(L26)</f>
-        <v>#DIV/0!</v>
+        <v>200000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1443298969072164</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1710248904082512</v>
       </c>
       <c r="O26" s="1">
         <v>100000</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="e">
+      <c r="P26" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R26" s="1">
         <f>Q26/P26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S26" s="1" t="e">
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S26" s="1">
         <f>20*LOG10(R26)</f>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C27" s="1">
         <v>200000</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="e">
+      <c r="D27" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="F27" s="1">
         <f>E27/D27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="1" t="e">
+        <v>0.94318181818181823</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.50809159548189398</v>
       </c>
       <c r="I27" s="1">
-        <v>200000</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="e">
-        <f>K27/J27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>300000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1443298969072164</v>
+      </c>
+      <c r="M27" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1710248904082512</v>
       </c>
       <c r="O27" s="1">
         <v>200000</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="e">
+      <c r="P27" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R27" s="1">
         <f>Q27/P27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S27" s="1" t="e">
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S27" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C28" s="1">
         <v>300000</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1" t="e">
-        <f t="shared" ref="F28:F30" si="6">E28/D28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="1" t="e">
+      <c r="D28" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F29" si="8">E28/D28</f>
+        <v>0.90909090909090917</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.82785370316450002</v>
       </c>
       <c r="I28" s="1">
-        <v>300000</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="e">
-        <f t="shared" ref="L28:L30" si="7">K28/J28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M28" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>400000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1443298969072164</v>
+      </c>
+      <c r="M28" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1710248904082512</v>
       </c>
       <c r="O28" s="1">
         <v>300000</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="e">
-        <f t="shared" ref="R28:R30" si="8">Q28/P28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S28" s="1" t="e">
+      <c r="P28" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" ref="R28:R29" si="9">Q28/P28</f>
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S28" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C29" s="1">
         <v>400000</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="1" t="e">
+      <c r="D29" s="1">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>0.85227272727272729</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="1">
-        <v>400000</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>-1.3884281751693714</v>
       </c>
       <c r="O29" s="1">
         <v>400000</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S29" s="1" t="e">
+      <c r="P29" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="9"/>
+        <v>1.8247422680412371</v>
+      </c>
+      <c r="S29" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.2240306419112343</v>
       </c>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
-        <v>500000</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="1">
-        <v>500000</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M30" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="1">
-        <v>500000</v>
-      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S30" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1556,5 +5331,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>